--- a/biology/Médecine/Signe_de_Rotés-Querol/Signe_de_Rotés-Querol.xlsx
+++ b/biology/Médecine/Signe_de_Rotés-Querol/Signe_de_Rotés-Querol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Signe_de_Rot%C3%A9s-Querol</t>
+          <t>Signe_de_Rotés-Querol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le signe de Rotés Querol est un symptôme observé en rhumatologie au cours d'atteintes de l'articulation sacro-iliaque. Il a été décrit par le médecin catalan Jaume Rotés Querol (1921-2008) et Forestier en 1950[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le signe de Rotés Querol est un symptôme observé en rhumatologie au cours d'atteintes de l'articulation sacro-iliaque. Il a été décrit par le médecin catalan Jaume Rotés Querol (1921-2008) et Forestier en 1950.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Signe_de_Rot%C3%A9s-Querol</t>
+          <t>Signe_de_Rotés-Querol</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On détecte cette affection à l'aide de l'imagerie médicale, qui montre une ossification du ligament longitudinal antérieur[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On détecte cette affection à l'aide de l'imagerie médicale, qui montre une ossification du ligament longitudinal antérieur.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Signe_de_Rot%C3%A9s-Querol</t>
+          <t>Signe_de_Rotés-Querol</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Manœuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se recherche en se plaçant derrière le patient en appui sur une jambe (appui monopodal) et en appuyant verticalement sur ses épaules : le test est positif s'il reproduit la douleur du côté où se situe l'appui.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Signe_de_Rot%C3%A9s-Querol</t>
+          <t>Signe_de_Rotés-Querol</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Pathologies au cours desquelles il est rencontré</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le signe de Rotés-Querol est habituellement associé à une pathologie de l'articulation sacro-iliaque telle que la spondylarthrite ankylosante mais il s'agit d'un signe peu sensible et peu spécifique.
 </t>
